--- a/pages/bang-luong.xlsx
+++ b/pages/bang-luong.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="66">
   <si>
     <t>STT</t>
   </si>
@@ -41,6 +41,126 @@
     <t>Ngày chấm công</t>
   </si>
   <si>
+    <t>ML1570267847</t>
+  </si>
+  <si>
+    <t>Nguyễn Duy Sơn</t>
+  </si>
+  <si>
+    <t>Nhân viên</t>
+  </si>
+  <si>
+    <t>8,050,000vnđ</t>
+  </si>
+  <si>
+    <t>8,354,750vnđ</t>
+  </si>
+  <si>
+    <t>2019-08-01</t>
+  </si>
+  <si>
+    <t>ML1570267874</t>
+  </si>
+  <si>
+    <t>7,590,000vnđ</t>
+  </si>
+  <si>
+    <t>8,398,050vnđ</t>
+  </si>
+  <si>
+    <t>2019-11-05</t>
+  </si>
+  <si>
+    <t>ML1570075372</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Mỹ Phương</t>
+  </si>
+  <si>
+    <t>7,354,750vnđ</t>
+  </si>
+  <si>
+    <t>2019-10-03</t>
+  </si>
+  <si>
+    <t>ML1659764121</t>
+  </si>
+  <si>
+    <t>4,600,000vnđ</t>
+  </si>
+  <si>
+    <t>4,117,000vnđ</t>
+  </si>
+  <si>
+    <t>2022-08-06</t>
+  </si>
+  <si>
+    <t>ML1660574941</t>
+  </si>
+  <si>
+    <t>Nguyễn Phước Thanh</t>
+  </si>
+  <si>
+    <t>Phó giám đốc</t>
+  </si>
+  <si>
+    <t>11,200,000vnđ</t>
+  </si>
+  <si>
+    <t>11,724,000vnđ</t>
+  </si>
+  <si>
+    <t>2022-08-15</t>
+  </si>
+  <si>
+    <t>ML1570075175</t>
+  </si>
+  <si>
+    <t>Trần Thị Bích Nhi</t>
+  </si>
+  <si>
+    <t>5,750,000vnđ</t>
+  </si>
+  <si>
+    <t>3,646,250vnđ</t>
+  </si>
+  <si>
+    <t>ML1570355932</t>
+  </si>
+  <si>
+    <t>Trần Mai Phương</t>
+  </si>
+  <si>
+    <t>Phó phòng</t>
+  </si>
+  <si>
+    <t>9,240,000vnđ</t>
+  </si>
+  <si>
+    <t>9,074,800vnđ</t>
+  </si>
+  <si>
+    <t>2019-10-06</t>
+  </si>
+  <si>
+    <t>ML1571390955</t>
+  </si>
+  <si>
+    <t>9,800,000vnđ</t>
+  </si>
+  <si>
+    <t>10,621,000vnđ</t>
+  </si>
+  <si>
+    <t>ML1660577937</t>
+  </si>
+  <si>
+    <t>5,600,000vnđ</t>
+  </si>
+  <si>
+    <t>5,012,000vnđ</t>
+  </si>
+  <si>
     <t>ML1570075152</t>
   </si>
   <si>
@@ -56,36 +176,6 @@
     <t>17,407,000vnđ</t>
   </si>
   <si>
-    <t>2019-10-03</t>
-  </si>
-  <si>
-    <t>ML1570075175</t>
-  </si>
-  <si>
-    <t>Trần Thị Bích Nhi</t>
-  </si>
-  <si>
-    <t>Nhân viên</t>
-  </si>
-  <si>
-    <t>5,750,000vnđ</t>
-  </si>
-  <si>
-    <t>3,646,250vnđ</t>
-  </si>
-  <si>
-    <t>ML1570075372</t>
-  </si>
-  <si>
-    <t>Nguyễn Thị Mỹ Phương</t>
-  </si>
-  <si>
-    <t>8,050,000vnđ</t>
-  </si>
-  <si>
-    <t>7,354,750vnđ</t>
-  </si>
-  <si>
     <t>ML1570267241</t>
   </si>
   <si>
@@ -95,9 +185,6 @@
     <t>20,026,000vnđ</t>
   </si>
   <si>
-    <t>2019-11-05</t>
-  </si>
-  <si>
     <t>ML1570267671</t>
   </si>
   <si>
@@ -110,43 +197,13 @@
     <t>2019-12-05</t>
   </si>
   <si>
-    <t>ML1570267847</t>
-  </si>
-  <si>
-    <t>Nguyễn Duy Sơn</t>
-  </si>
-  <si>
-    <t>8,354,750vnđ</t>
-  </si>
-  <si>
-    <t>2019-08-01</t>
-  </si>
-  <si>
-    <t>ML1570267874</t>
-  </si>
-  <si>
-    <t>7,590,000vnđ</t>
-  </si>
-  <si>
-    <t>8,398,050vnđ</t>
-  </si>
-  <si>
-    <t>ML1570355932</t>
-  </si>
-  <si>
-    <t>Trần Mai Phương</t>
-  </si>
-  <si>
-    <t>Phó phòng</t>
-  </si>
-  <si>
-    <t>9,240,000vnđ</t>
-  </si>
-  <si>
-    <t>9,074,800vnđ</t>
-  </si>
-  <si>
-    <t>2019-10-06</t>
+    <t>ML1660577808</t>
+  </si>
+  <si>
+    <t>12,000,000vnđ</t>
+  </si>
+  <si>
+    <t>12,440,000vnđ</t>
   </si>
   <si>
     <t>ML1571365486</t>
@@ -155,43 +212,7 @@
     <t>Trần Diễm My</t>
   </si>
   <si>
-    <t>4,600,000vnđ</t>
-  </si>
-  <si>
-    <t>4,117,000vnđ</t>
-  </si>
-  <si>
     <t>2019-10-18</t>
-  </si>
-  <si>
-    <t>ML1571390955</t>
-  </si>
-  <si>
-    <t>9,800,000vnđ</t>
-  </si>
-  <si>
-    <t>10,621,000vnđ</t>
-  </si>
-  <si>
-    <t>ML1659764121</t>
-  </si>
-  <si>
-    <t>2022-08-06</t>
-  </si>
-  <si>
-    <t>ML1659767291</t>
-  </si>
-  <si>
-    <t>Nguyễn Phước Thanh</t>
-  </si>
-  <si>
-    <t>Phó giám đốc</t>
-  </si>
-  <si>
-    <t>11,200,000vnđ</t>
-  </si>
-  <si>
-    <t>10,024,000vnđ</t>
   </si>
 </sst>
 </file>
@@ -556,10 +577,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -617,7 +638,7 @@
         <v>11</v>
       </c>
       <c r="F2" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>12</v>
@@ -634,22 +655,22 @@
         <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" s="2">
+        <v>29</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="F3" s="2">
-        <v>25</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -657,25 +678,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F4" s="2">
         <v>30</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -683,25 +704,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="2">
+        <v>20</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="2">
-        <v>29</v>
-      </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -709,25 +730,25 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="D6" s="2" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F6" s="2">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -735,25 +756,25 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="2">
+        <v>25</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="F7" s="2">
-        <v>30</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -761,25 +782,25 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F8" s="2">
         <v>29</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -787,25 +808,25 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="E9" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F9" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -813,13 +834,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>46</v>
@@ -831,7 +852,7 @@
         <v>47</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -839,25 +860,25 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="D11" s="2" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F11" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -865,25 +886,25 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="F12" s="2">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -891,25 +912,77 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>57</v>
       </c>
       <c r="F13" s="2">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>58</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>53</v>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="2">
+        <v>20</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="2">
+        <v>20</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
